--- a/v0.1/stm32_pin_map.xlsx
+++ b/v0.1/stm32_pin_map.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="69">
   <si>
     <t xml:space="preserve">Pins</t>
   </si>
@@ -88,6 +88,15 @@
     <t xml:space="preserve">ASSI Green</t>
   </si>
   <si>
+    <t xml:space="preserve">PB10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autonomous mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digital</t>
+  </si>
+  <si>
     <t xml:space="preserve">PC0</t>
   </si>
   <si>
@@ -134,9 +143,6 @@
   </si>
   <si>
     <t xml:space="preserve">heart beat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GPIO</t>
   </si>
   <si>
     <t xml:space="preserve">PD1</t>
@@ -300,12 +306,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -329,12 +339,12 @@
   <dimension ref="A2:F31"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F29" activeCellId="0" sqref="F29"/>
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.1989795918367"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -439,99 +449,113 @@
         <v>9</v>
       </c>
     </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C10" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>24</v>
-      </c>
       <c r="E10" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>9</v>
@@ -539,210 +563,210 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="1"/>
+      <c r="F17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="1"/>
+      <c r="F18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="1"/>
+      <c r="F19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="1"/>
+      <c r="F20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="1"/>
+      <c r="F21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="1"/>
+      <c r="F22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="1"/>
+      <c r="F23" s="2"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="1"/>
+      <c r="F24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="1"/>
+      <c r="F25" s="2"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="1"/>
+      <c r="F26" s="2"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="1"/>
+      <c r="F27" s="2"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="F29" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="F29" s="2"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
